--- a/Teaching/Biostatistics/results/Tabel_Biostatistica_R1.xlsx
+++ b/Teaching/Biostatistics/results/Tabel_Biostatistica_R1.xlsx
@@ -635,14 +635,14 @@
         <v>503</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E3">
         <v>1.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">ROUND(SUM(D3,E3),0)+1</f>
-        <v>6</v>
+        <f t="shared" ref="F3" si="0">ROUND(SUM(D3,E3),0)+1</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/Teaching/Biostatistics/results/Tabel_Biostatistica_R1.xlsx
+++ b/Teaching/Biostatistics/results/Tabel_Biostatistica_R1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -140,110 +140,6 @@
         <charset val="134"/>
       </rPr>
       <t>LAVINIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MARINEAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>RODICA-GEORGIANA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>MITITELU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>M.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BOGDAN-OCTAVIAN</t>
     </r>
   </si>
   <si>
@@ -582,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -621,7 +517,7 @@
         <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -643,34 +539,6 @@
       <c r="F3">
         <f t="shared" ref="F3" si="0">ROUND(SUM(D3,E3),0)+1</f>
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>503</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>503</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
